--- a/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C7" s="39" t="n"/>
       <c r="D7" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="40" t="n"/>
       <c r="F8" s="25" t="inlineStr">
         <is>
-          <t>籃球鮮乳造型奶黃包</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="G8" s="39" t="n"/>
       <c r="H8" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
@@ -1157,7 +1157,7 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>水豚君造型鮮乳焦糖牛奶包</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="E9" s="40" t="n"/>
       <c r="F9" s="25" t="inlineStr">
         <is>
-          <t>水豚君造型鮮乳焦糖牛奶包</t>
+          <t>一風堂橫濱家系拉麵</t>
         </is>
       </c>
       <c r="G9" s="39" t="n"/>
@@ -1197,7 +1197,7 @@
       <c r="A10" s="40" t="n"/>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C10" s="39" t="n"/>
@@ -1207,7 +1207,7 @@
       <c r="E10" s="40" t="n"/>
       <c r="F10" s="25" t="inlineStr">
         <is>
-          <t>珍珠奶茶沖繩黑糖鮮乳造型饅頭</t>
+          <t>Ippudo Spicy Plant</t>
         </is>
       </c>
       <c r="G10" s="39" t="n"/>
@@ -1533,7 +1533,7 @@
       <c r="A19" s="40" t="n"/>
       <c r="B19" s="25" t="inlineStr">
         <is>
-          <t>Yukiko tantan ramen</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C19" s="39" t="n"/>
@@ -1567,12 +1567,12 @@
       <c r="A20" s="40" t="n"/>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>麻辣小籠包</t>
+          <t>IPPUDO_Plant-Base_Ramen</t>
         </is>
       </c>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="25" t="n"/>
@@ -1601,12 +1601,12 @@
       <c r="A21" s="40" t="n"/>
       <c r="B21" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
+          <t>松露蔬食義大利麵</t>
         </is>
       </c>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="25" t="n"/>
@@ -1635,7 +1635,7 @@
       <c r="A22" s="40" t="n"/>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>Yukiko Shoyu ramen</t>
+          <t>雙醬魚子義大利麵</t>
         </is>
       </c>
       <c r="C22" s="39" t="n"/>
@@ -1667,15 +1667,9 @@
     </row>
     <row r="23" ht="15" customHeight="1" s="32">
       <c r="A23" s="40" t="n"/>
-      <c r="B23" s="25" t="inlineStr">
-        <is>
-          <t>水豚君薯條鮮乳造型饅頭</t>
-        </is>
-      </c>
+      <c r="B23" s="25" t="n"/>
       <c r="C23" s="39" t="n"/>
-      <c r="D23" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="40" t="n"/>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="39" t="n"/>

--- a/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
@@ -958,7 +958,7 @@
       </c>
       <c r="C4" s="39" t="n"/>
       <c r="D4" s="21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="24" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="G4" s="39" t="n"/>
       <c r="H4" s="21" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C5" s="39" t="n"/>
       <c r="D5" s="21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="25" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G5" s="39" t="n"/>
       <c r="H5" s="21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C6" s="39" t="n"/>
       <c r="D6" s="21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="40" t="n"/>
       <c r="F6" s="25" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G6" s="39" t="n"/>
       <c r="H6" s="21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
@@ -1077,22 +1077,22 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>緹魚鮮蝦青醬松子義大利麵</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
       <c r="D7" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="inlineStr">
         <is>
-          <t>小卷米粉</t>
+          <t>籃球鮮乳造型奶黃包</t>
         </is>
       </c>
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
@@ -1122,18 +1122,12 @@
       </c>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="40" t="n"/>
-      <c r="F8" s="25" t="inlineStr">
-        <is>
-          <t>IPPUDO_Spicy _TanTan</t>
-        </is>
-      </c>
+      <c r="F8" s="25" t="n"/>
       <c r="G8" s="39" t="n"/>
-      <c r="H8" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="H8" s="21" t="n"/>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
@@ -1157,7 +1151,7 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>水豚君造型鮮乳焦糖牛奶包</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
@@ -1165,15 +1159,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="40" t="n"/>
-      <c r="F9" s="25" t="inlineStr">
-        <is>
-          <t>一風堂橫濱家系拉麵</t>
-        </is>
-      </c>
+      <c r="F9" s="25" t="n"/>
       <c r="G9" s="39" t="n"/>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" s="21" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
@@ -1197,7 +1185,7 @@
       <c r="A10" s="40" t="n"/>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C10" s="39" t="n"/>
@@ -1205,15 +1193,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="40" t="n"/>
-      <c r="F10" s="25" t="inlineStr">
-        <is>
-          <t>Ippudo Spicy Plant</t>
-        </is>
-      </c>
+      <c r="F10" s="25" t="n"/>
       <c r="G10" s="39" t="n"/>
-      <c r="H10" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" s="21" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
@@ -1268,7 +1250,7 @@
         </is>
       </c>
       <c r="B12" s="25" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" s="25" t="inlineStr">
         <is>
@@ -1276,7 +1258,7 @@
         </is>
       </c>
       <c r="D12" s="21" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E12" s="24" t="inlineStr">
         <is>
@@ -1284,7 +1266,7 @@
         </is>
       </c>
       <c r="F12" s="25" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G12" s="25" t="inlineStr">
         <is>
@@ -1292,7 +1274,7 @@
         </is>
       </c>
       <c r="H12" s="21" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
@@ -1533,12 +1515,12 @@
       <c r="A19" s="40" t="n"/>
       <c r="B19" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>Yukiko tantan ramen</t>
         </is>
       </c>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="40" t="n"/>
       <c r="F19" s="25" t="n"/>
@@ -1567,12 +1549,12 @@
       <c r="A20" s="40" t="n"/>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
+          <t>麻辣小籠包</t>
         </is>
       </c>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="25" t="n"/>
@@ -1601,12 +1583,12 @@
       <c r="A21" s="40" t="n"/>
       <c r="B21" s="25" t="inlineStr">
         <is>
-          <t>松露蔬食義大利麵</t>
+          <t>IPPUDO_Plant-Base_Ramen</t>
         </is>
       </c>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="25" t="n"/>
@@ -1635,7 +1617,7 @@
       <c r="A22" s="40" t="n"/>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>雙醬魚子義大利麵</t>
+          <t>Yukiko Shoyu ramen</t>
         </is>
       </c>
       <c r="C22" s="39" t="n"/>
@@ -1667,9 +1649,15 @@
     </row>
     <row r="23" ht="15" customHeight="1" s="32">
       <c r="A23" s="40" t="n"/>
-      <c r="B23" s="25" t="n"/>
+      <c r="B23" s="25" t="inlineStr">
+        <is>
+          <t>水豚君薯條鮮乳造型饅頭</t>
+        </is>
+      </c>
       <c r="C23" s="39" t="n"/>
-      <c r="D23" s="21" t="n"/>
+      <c r="D23" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" s="40" t="n"/>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="39" t="n"/>
@@ -1728,7 +1716,7 @@
         </is>
       </c>
       <c r="B25" s="25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="25" t="inlineStr">
         <is>
@@ -1736,7 +1724,7 @@
         </is>
       </c>
       <c r="D25" s="21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="24" t="inlineStr">
         <is>

--- a/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250804-在那裡-每日商品補貨明細表.xlsx
@@ -958,7 +958,7 @@
       </c>
       <c r="C4" s="39" t="n"/>
       <c r="D4" s="21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="24" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="G4" s="39" t="n"/>
       <c r="H4" s="21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C5" s="39" t="n"/>
       <c r="D5" s="21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="25" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G5" s="39" t="n"/>
       <c r="H5" s="21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C6" s="39" t="n"/>
       <c r="D6" s="21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="40" t="n"/>
       <c r="F6" s="25" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G6" s="39" t="n"/>
       <c r="H6" s="21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
@@ -1077,22 +1077,22 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>雙醬鮭魚筆尖麵</t>
+          <t>緹魚鮮蝦青醬松子義大利麵</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
       <c r="D7" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="inlineStr">
         <is>
-          <t>籃球鮮乳造型奶黃包</t>
+          <t>小卷米粉</t>
         </is>
       </c>
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
@@ -1122,12 +1122,18 @@
       </c>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="40" t="n"/>
-      <c r="F8" s="25" t="n"/>
+      <c r="F8" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Spicy _TanTan</t>
+        </is>
+      </c>
       <c r="G8" s="39" t="n"/>
-      <c r="H8" s="21" t="n"/>
+      <c r="H8" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
@@ -1151,7 +1157,7 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>水豚君造型鮮乳焦糖牛奶包</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
@@ -1159,9 +1165,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="40" t="n"/>
-      <c r="F9" s="25" t="n"/>
+      <c r="F9" s="25" t="inlineStr">
+        <is>
+          <t>一風堂橫濱家系拉麵</t>
+        </is>
+      </c>
       <c r="G9" s="39" t="n"/>
-      <c r="H9" s="21" t="n"/>
+      <c r="H9" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
@@ -1185,7 +1197,7 @@
       <c r="A10" s="40" t="n"/>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C10" s="39" t="n"/>
@@ -1193,9 +1205,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="40" t="n"/>
-      <c r="F10" s="25" t="n"/>
+      <c r="F10" s="25" t="inlineStr">
+        <is>
+          <t>Ippudo Spicy Plant</t>
+        </is>
+      </c>
       <c r="G10" s="39" t="n"/>
-      <c r="H10" s="21" t="n"/>
+      <c r="H10" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="7" t="n"/>
@@ -1250,7 +1268,7 @@
         </is>
       </c>
       <c r="B12" s="25" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="25" t="inlineStr">
         <is>
@@ -1258,7 +1276,7 @@
         </is>
       </c>
       <c r="D12" s="21" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E12" s="24" t="inlineStr">
         <is>
@@ -1266,7 +1284,7 @@
         </is>
       </c>
       <c r="F12" s="25" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G12" s="25" t="inlineStr">
         <is>
@@ -1274,7 +1292,7 @@
         </is>
       </c>
       <c r="H12" s="21" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
@@ -1515,12 +1533,12 @@
       <c r="A19" s="40" t="n"/>
       <c r="B19" s="25" t="inlineStr">
         <is>
-          <t>Yukiko tantan ramen</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="40" t="n"/>
       <c r="F19" s="25" t="n"/>
@@ -1549,12 +1567,12 @@
       <c r="A20" s="40" t="n"/>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>麻辣小籠包</t>
+          <t>IPPUDO_Plant-Base_Ramen</t>
         </is>
       </c>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="25" t="n"/>
@@ -1583,12 +1601,12 @@
       <c r="A21" s="40" t="n"/>
       <c r="B21" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
+          <t>松露蔬食義大利麵</t>
         </is>
       </c>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="25" t="n"/>
@@ -1617,7 +1635,7 @@
       <c r="A22" s="40" t="n"/>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>Yukiko Shoyu ramen</t>
+          <t>雙醬魚子義大利麵</t>
         </is>
       </c>
       <c r="C22" s="39" t="n"/>
@@ -1649,15 +1667,9 @@
     </row>
     <row r="23" ht="15" customHeight="1" s="32">
       <c r="A23" s="40" t="n"/>
-      <c r="B23" s="25" t="inlineStr">
-        <is>
-          <t>水豚君薯條鮮乳造型饅頭</t>
-        </is>
-      </c>
+      <c r="B23" s="25" t="n"/>
       <c r="C23" s="39" t="n"/>
-      <c r="D23" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="40" t="n"/>
       <c r="F23" s="25" t="n"/>
       <c r="G23" s="39" t="n"/>
@@ -1716,7 +1728,7 @@
         </is>
       </c>
       <c r="B25" s="25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="25" t="inlineStr">
         <is>
@@ -1724,7 +1736,7 @@
         </is>
       </c>
       <c r="D25" s="21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="24" t="inlineStr">
         <is>
